--- a/sprint2/sprintbacklog.xlsx
+++ b/sprint2/sprintbacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\private\CIS 310\sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Documents\UWSP\CIS 310\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C6DEB4-568B-4A68-8A11-0C33867AC05E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B391580D-771F-42FE-922E-C078EAE66458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2295" windowWidth="21600" windowHeight="12735" xr2:uid="{599BABDD-575F-41B5-8891-A60760777DBD}"/>
+    <workbookView xWindow="6930" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{599BABDD-575F-41B5-8891-A60760777DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,75 +432,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EA3D4B-4CD8-48B1-AD59-BDE83F82EA70}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
